--- a/biology/Médecine/Laurent_Dupont-Haumont/Laurent_Dupont-Haumont.xlsx
+++ b/biology/Médecine/Laurent_Dupont-Haumont/Laurent_Dupont-Haumont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurent Haumont, sieur du Pont, dit Dupont-Haumont, né à Bouin le 1er janvier 1718, mort avant 1761, est un maître chirurgien, chirurgien major de l'hôpital de l'île de Bouin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une famille originaire d'Herbignac, fils de Jean Haumont, apothicaire et chirurgien à Bourgneuf, il suivit la profession de son père à Bouin où il devint chirurgien major de son hôpital royal. Il fut l'un des pionniers de la paracentèse.
 Après son acquisition de la terre du Pont il se styla soit Laurent Haumont sieur du Pont, ou plus tard, Laurent Dupont Haumont et se qualifia de noble homme.
